--- a/Raw_data/LFDP-SPcodes.xlsx
+++ b/Raw_data/LFDP-SPcodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au529793/Projects/GIT/legenDNAry/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D1267E-1EDC-894C-B2E1-FED199915AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF84B69-377F-0B46-ABCB-E25E98C5D8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="500" windowWidth="27440" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5540" yWindow="500" windowWidth="27440" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$179</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="707">
   <si>
     <t>SPECIES CODE</t>
   </si>
@@ -2069,9 +2082,6 @@
     <t>gOTU33</t>
   </si>
   <si>
-    <t>gOTU84</t>
-  </si>
-  <si>
     <t>gOTU54</t>
   </si>
   <si>
@@ -2163,6 +2173,9 @@
   </si>
   <si>
     <t>UNKSPP</t>
+  </si>
+  <si>
+    <t>Pooled with psychotria because of BLAST and it is abundant in DNA data</t>
   </si>
 </sst>
 </file>
@@ -2238,7 +2251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2259,16 +2272,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2593,8 +2599,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2765,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>280</v>
@@ -2774,7 +2780,7 @@
         <v>281</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>34</v>
@@ -2998,7 +3004,7 @@
         <v>512</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>597</v>
@@ -3086,7 +3092,7 @@
         <v>615</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J17" s="3"/>
     </row>
@@ -3116,7 +3122,7 @@
         <v>615</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>597</v>
@@ -3344,7 +3350,7 @@
         <v>69</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>597</v>
@@ -3396,10 +3402,10 @@
         <v>140</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>677</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>678</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>597</v>
@@ -3426,10 +3432,10 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>677</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>678</v>
       </c>
       <c r="J29" s="3"/>
     </row>
@@ -3591,7 +3597,7 @@
       <c r="G35" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="6" t="s">
         <v>624</v>
       </c>
       <c r="I35" s="6" t="s">
@@ -3653,7 +3659,7 @@
         <v>16</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>578</v>
@@ -3685,7 +3691,7 @@
         <v>168</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>597</v>
@@ -3739,7 +3745,7 @@
         <v>208</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>597</v>
@@ -3768,7 +3774,7 @@
         <v>205</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>597</v>
@@ -3797,11 +3803,11 @@
         <v>325</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -3827,7 +3833,7 @@
         <v>491</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>598</v>
@@ -3879,7 +3885,7 @@
         <v>24</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>597</v>
@@ -3911,7 +3917,7 @@
         <v>626</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>597</v>
@@ -3994,7 +4000,7 @@
         <v>401</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>600</v>
@@ -4023,7 +4029,7 @@
         <v>473</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>600</v>
@@ -4074,7 +4080,7 @@
         <v>258</v>
       </c>
       <c r="G52" s="6"/>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="8" t="s">
         <v>627</v>
       </c>
       <c r="I52" s="6" t="s">
@@ -4083,32 +4089,36 @@
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="9">
-        <v>1</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="6">
+        <v>1</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="9"/>
+      <c r="H53" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
@@ -4131,7 +4141,7 @@
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>578</v>
@@ -4161,7 +4171,7 @@
         <v>16</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>578</v>
@@ -4189,7 +4199,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>578</v>
@@ -4486,7 +4496,7 @@
         <v>629</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -5009,7 +5019,7 @@
         <v>223</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>15</v>
@@ -5032,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>39</v>
@@ -5109,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C90" t="s">
         <v>39</v>
@@ -5361,7 +5371,7 @@
         <v>637</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -5689,7 +5699,7 @@
         <v>641</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5798,7 +5808,7 @@
         <v>641</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5848,7 +5858,7 @@
         <v>641</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -5875,7 +5885,7 @@
         <v>641</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5964,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>142</v>
@@ -6155,7 +6165,7 @@
       <c r="C129" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="3" t="s">
         <v>231</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -6168,7 +6178,7 @@
       <c r="H129" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="I129" s="12" t="s">
+      <c r="I129" s="9" t="s">
         <v>571</v>
       </c>
     </row>
@@ -6329,10 +6339,10 @@
         <v>647</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -6374,7 +6384,7 @@
       <c r="C137" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="3" t="s">
         <v>461</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -6442,7 +6452,7 @@
       <c r="G139" s="5"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J139" s="6" t="s">
         <v>597</v>
@@ -6581,7 +6591,7 @@
         <v>79</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>598</v>
@@ -6608,10 +6618,10 @@
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>688</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -6697,7 +6707,7 @@
         <v>278</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J148" s="3" t="s">
         <v>602</v>
@@ -6846,34 +6856,34 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="8">
-        <v>1</v>
-      </c>
-      <c r="B154" s="8" t="s">
+      <c r="A154" s="6">
+        <v>1</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E154" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F154" s="8" t="s">
+      <c r="F154" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G154" s="8" t="s">
+      <c r="G154" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="H154" s="8" t="s">
+      <c r="H154" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="I154" s="8" t="s">
+      <c r="I154" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="J154" s="8" t="s">
+      <c r="J154" s="6" t="s">
         <v>606</v>
       </c>
     </row>
@@ -7225,10 +7235,10 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
+        <v>703</v>
+      </c>
+      <c r="C168" t="s">
         <v>704</v>
-      </c>
-      <c r="C168" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -7236,10 +7246,10 @@
         <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C169" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">

--- a/Raw_data/LFDP-SPcodes.xlsx
+++ b/Raw_data/LFDP-SPcodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au529793/Projects/GIT/legenDNAry/Raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennd/Documents/GitHub/legenDNAry/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF84B69-377F-0B46-ABCB-E25E98C5D8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5842277-01A1-124A-A876-7A9663ED6E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="500" windowWidth="27440" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="7700" windowWidth="27440" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2599,8 +2599,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2649,7 +2649,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>114</v>
+        <v>317</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>624</v>
@@ -3607,7 +3607,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>1</v>
       </c>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>1</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>1</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>1</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>1</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -4414,7 +4414,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>1</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>1</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>1</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>1</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>1</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>1</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>1</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>1</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>1</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>1</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>1</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>1</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>1</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>1</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>1</v>
       </c>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>1</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>1</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>1</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>1</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>1</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>1</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>1</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>1</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>1</v>
       </c>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>1</v>
       </c>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>1</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>1</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>1</v>
       </c>
@@ -5598,7 +5598,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>1</v>
       </c>
@@ -5650,7 +5650,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>1</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>1</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>1</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>1</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>1</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>1</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>1</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>1</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>1</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>1</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>1</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>1</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>1</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>1</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>1</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>1</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>1</v>
       </c>
@@ -6234,7 +6234,7 @@
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>1</v>
       </c>
@@ -6286,7 +6286,7 @@
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>1</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>1</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>1</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>1</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>1</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>1</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>1</v>
       </c>
@@ -6510,7 +6510,7 @@
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>1</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>1</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>1</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>1</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>1</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>1</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>1</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>1</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>1</v>
       </c>
@@ -6796,7 +6796,7 @@
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>1</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>15</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>317</v>
+        <v>114</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>654</v>
@@ -6887,7 +6887,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>1</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>1</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>1</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>1</v>
       </c>
@@ -7070,7 +7070,7 @@
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>1</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>1</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>1</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>1</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>1</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>1</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>1</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>1</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>1</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>1</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="4"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>1</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>1</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>1</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>1</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>1</v>
       </c>
@@ -7477,6 +7477,12 @@
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="gOTU56"/>
+        <filter val="gOTU66"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I177">

--- a/Raw_data/LFDP-SPcodes.xlsx
+++ b/Raw_data/LFDP-SPcodes.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennd/Documents/GitHub/legenDNAry/Raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au529793/Projects/GIT/legenDNAry/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5842277-01A1-124A-A876-7A9663ED6E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7248047-9A55-904E-B252-D3C384BE63AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="7700" windowWidth="27440" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="500" windowWidth="27440" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="719">
   <si>
     <t>SPECIES CODE</t>
   </si>
@@ -2176,13 +2176,49 @@
   </si>
   <si>
     <t>Pooled with psychotria because of BLAST and it is abundant in DNA data</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Whether a species was recorded as present (1) or absent (0) in the 2023 LFDP census data</t>
+  </si>
+  <si>
+    <t>6-letter code for the species</t>
+  </si>
+  <si>
+    <t>Botanical family</t>
+  </si>
+  <si>
+    <t>Botanical genus</t>
+  </si>
+  <si>
+    <t>Botanical species epithet</t>
+  </si>
+  <si>
+    <t>Life form (tree, shrub, palm, small tree, herb, fern)</t>
+  </si>
+  <si>
+    <t>Initial OTU classification based on shared or unique barcode sequence data</t>
+  </si>
+  <si>
+    <t>Final OTU classification based on merging species without sequence data, etc.</t>
+  </si>
+  <si>
+    <t>General comments</t>
+  </si>
+  <si>
+    <t>Comments specific to comparing reference library sequences with GeneBank based on BLAST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2194,20 +2230,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2251,7 +2273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2262,21 +2284,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2596,12 +2619,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2649,125 +2669,128 @@
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="I2"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2779,21 +2802,21 @@
       <c r="D6" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2813,153 +2836,159 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2980,384 +3009,396 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3378,98 +3419,100 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="I30" s="5"/>
+      <c r="J30" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3489,42 +3532,43 @@
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>0</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3542,36 +3586,38 @@
       <c r="F33" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="4" t="s">
         <v>598</v>
       </c>
     </row>
@@ -3607,36 +3653,37 @@
         <v>601</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="I36" s="5"/>
+      <c r="J36" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -3668,37 +3715,38 @@
         <v>602</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="I38" s="5"/>
+      <c r="J38" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3716,71 +3764,74 @@
       <c r="F39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3" t="s">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="I40" s="5"/>
+      <c r="J40" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>1</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="I41" s="5"/>
+      <c r="J41" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -3810,37 +3861,38 @@
         <v>681</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="I43" s="5"/>
+      <c r="J43" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -3861,37 +3913,39 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="I45" s="5"/>
+      <c r="J45" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -3923,120 +3977,124 @@
         <v>597</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>1</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="I47" s="5"/>
+      <c r="J47" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3" t="s">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>1</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="I49" s="5"/>
+      <c r="J49" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>1</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="I50" s="5"/>
+      <c r="J50" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>0</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -4056,11 +4114,12 @@
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>1</v>
       </c>
@@ -4080,7 +4139,7 @@
         <v>258</v>
       </c>
       <c r="G52" s="6"/>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="6" t="s">
         <v>627</v>
       </c>
       <c r="I52" s="6" t="s">
@@ -4088,7 +4147,7 @@
       </c>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>1</v>
       </c>
@@ -4120,7 +4179,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>1</v>
       </c>
@@ -4148,7 +4207,7 @@
       </c>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>0</v>
       </c>
@@ -4180,7 +4239,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>1</v>
       </c>
@@ -4206,8 +4265,8 @@
       </c>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>0</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -4228,125 +4287,130 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>1</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>1</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="I58" s="5"/>
+      <c r="J58" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>1</v>
-      </c>
-      <c r="B59" s="3" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="I59" s="5"/>
+      <c r="J59" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>1</v>
-      </c>
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>1</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="I60" s="5"/>
+      <c r="J60" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>1</v>
-      </c>
-      <c r="B61" s="3" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>1</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="I61" s="5"/>
+      <c r="J61" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
         <v>0</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -4367,9 +4431,10 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>0</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -4390,9 +4455,10 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>0</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -4413,182 +4479,188 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>1</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>1</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="I65" s="5"/>
+      <c r="J65" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>1</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="I66" s="5"/>
+      <c r="J66" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>1</v>
-      </c>
-      <c r="B67" s="3" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>1</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3" t="s">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="4" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>1</v>
-      </c>
-      <c r="B68" s="3" t="s">
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>1</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="I68" s="5"/>
+      <c r="J68" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>1</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>1</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3" t="s">
+      <c r="I69" s="4"/>
+      <c r="J69" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>1</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>1</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="I70" s="5"/>
+      <c r="J70" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>0</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -4609,230 +4681,240 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>1</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>1</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="I72" s="5"/>
+      <c r="J72" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>1</v>
-      </c>
-      <c r="B73" s="3" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>1</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="I73" s="5"/>
+      <c r="J73" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>1</v>
-      </c>
-      <c r="B74" s="3" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>1</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3" t="s">
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>1</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>1</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="I75" s="5"/>
+      <c r="J75" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>1</v>
-      </c>
-      <c r="B76" s="3" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>1</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="I76" s="5"/>
+      <c r="J76" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>1</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>1</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="I77" s="5"/>
+      <c r="J77" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>1</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3" t="s">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>1</v>
-      </c>
-      <c r="B79" s="3" t="s">
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>1</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="I79" s="5"/>
+      <c r="J79" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
         <v>0</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -4856,336 +4938,352 @@
       <c r="H80" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="I80" s="5"/>
+      <c r="J80" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>1</v>
-      </c>
-      <c r="B81" s="3" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>1</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="I81" s="5"/>
+      <c r="J81" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>1</v>
-      </c>
-      <c r="B82" s="3" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>1</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="I82" s="5"/>
+      <c r="J82" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>1</v>
-      </c>
-      <c r="B83" s="3" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>1</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="I83" s="5"/>
+      <c r="J83" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>1</v>
-      </c>
-      <c r="B84" s="3" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>1</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="I84" s="5"/>
+      <c r="J84" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>1</v>
-      </c>
-      <c r="B85" s="3" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>1</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="I85" s="5"/>
+      <c r="J85" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>1</v>
-      </c>
-      <c r="B86" s="3" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>1</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>1</v>
-      </c>
-      <c r="B87" s="3" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>1</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="G87" s="5"/>
+      <c r="H87" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I87" s="4" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>1</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>1</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3" t="s">
+      <c r="G88" s="4"/>
+      <c r="H88" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I88" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>1</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3" t="s">
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="I89" s="4" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>1</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F90" s="3"/>
-      <c r="H90" s="3" t="s">
+      <c r="E90" s="5"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I90" s="4" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>1</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F91" s="3"/>
-      <c r="H91" s="3" t="s">
+      <c r="E91" s="5"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="4" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>1</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>1</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H92" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="I92" s="5"/>
+      <c r="J92" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -5217,40 +5315,40 @@
         <v>603</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
-        <v>1</v>
-      </c>
-      <c r="B94" s="3" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>1</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G94" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I94" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J94" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
         <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -5271,9 +5369,10 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
         <v>0</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -5294,9 +5393,10 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
         <v>0</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -5315,40 +5415,42 @@
         <v>15</v>
       </c>
       <c r="G97" s="4"/>
-      <c r="H97" s="3"/>
+      <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
-        <v>1</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>1</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H98" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="I98" s="5"/>
+      <c r="J98" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>0</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -5367,216 +5469,222 @@
         <v>34</v>
       </c>
       <c r="G99" s="4"/>
-      <c r="H99" s="3" t="s">
+      <c r="H99" s="4" t="s">
         <v>637</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>1</v>
-      </c>
-      <c r="B100" s="3" t="s">
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>1</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H100" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="I100" s="5"/>
+      <c r="J100" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>1</v>
-      </c>
-      <c r="B101" s="3" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>1</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H101" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="I101" s="5"/>
+      <c r="J101" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <v>1</v>
-      </c>
-      <c r="B102" s="3" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>1</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3" t="s">
+      <c r="G102" s="4"/>
+      <c r="H102" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="I102" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <v>1</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>1</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3" t="s">
+      <c r="G103" s="4"/>
+      <c r="H103" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="I103" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="J103" s="3"/>
-    </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>1</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>1</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G104" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H104" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="I104" s="5"/>
+      <c r="J104" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>1</v>
-      </c>
-      <c r="B105" s="3" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>1</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G105" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H105" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="I105" s="5"/>
+      <c r="J105" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <v>1</v>
-      </c>
-      <c r="B106" s="3" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>1</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="H106" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="I106" s="5"/>
+      <c r="J106" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
         <v>0</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -5597,38 +5705,40 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
-    </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <v>1</v>
-      </c>
-      <c r="B108" s="3" t="s">
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>1</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="H108" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="I108" s="5"/>
+      <c r="J108" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
         <v>0</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -5649,61 +5759,64 @@
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
-    </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>1</v>
-      </c>
-      <c r="B110" s="3" t="s">
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>1</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3" t="s">
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>1</v>
-      </c>
-      <c r="B111" s="3" t="s">
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>1</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3" t="s">
+      <c r="G111" s="4"/>
+      <c r="H111" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="I111" s="4" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
         <v>0</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -5724,95 +5837,98 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
-        <v>1</v>
-      </c>
-      <c r="B113" s="3" t="s">
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>1</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F113" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G113" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="H113" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3" t="s">
+      <c r="I113" s="4"/>
+      <c r="J113" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
-        <v>1</v>
-      </c>
-      <c r="B114" s="3" t="s">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>1</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F114" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G114" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H114" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="I114" s="5"/>
+      <c r="J114" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
-        <v>1</v>
-      </c>
-      <c r="B115" s="3" t="s">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>1</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F115" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3" t="s">
+      <c r="G115" s="4"/>
+      <c r="H115" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="I115" s="4" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
         <v>0</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -5833,63 +5949,66 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
-        <v>1</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>1</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3" t="s">
+      <c r="G117" s="4"/>
+      <c r="H117" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I117" s="3" t="s">
+      <c r="I117" s="4" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
-        <v>1</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>1</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3" t="s">
+      <c r="G118" s="4"/>
+      <c r="H118" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="I118" s="4" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
         <v>0</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -5910,309 +6029,324 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
-        <v>1</v>
-      </c>
-      <c r="B120" s="3" t="s">
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>1</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H120" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="I120" s="5"/>
+      <c r="J120" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
-        <v>1</v>
-      </c>
-      <c r="B121" s="3" t="s">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>1</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G121" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H121" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="I121" s="5"/>
+      <c r="J121" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
         <v>0</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="4" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
-        <v>1</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>1</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F123" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3" t="s">
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
-        <v>1</v>
-      </c>
-      <c r="B124" s="3" t="s">
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>1</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G124" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H124" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="I124" s="5"/>
+      <c r="J124" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
-        <v>1</v>
-      </c>
-      <c r="B125" s="3" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>1</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G125" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="H125" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="I125" s="5"/>
+      <c r="J125" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
-        <v>1</v>
-      </c>
-      <c r="B126" s="3" t="s">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>1</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F126" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" t="s">
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="5" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
-        <v>1</v>
-      </c>
-      <c r="B127" s="3" t="s">
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>1</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="F127" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G127" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H127" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="I127" s="5"/>
+      <c r="J127" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
-        <v>1</v>
-      </c>
-      <c r="B128" s="3" t="s">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>1</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G128" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="H128" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="I128" s="5"/>
+      <c r="J128" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
-        <v>1</v>
-      </c>
-      <c r="B129" s="3" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>1</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F129" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3" t="s">
+      <c r="G129" s="4"/>
+      <c r="H129" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="I129" s="9" t="s">
+      <c r="I129" s="8" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
-        <v>1</v>
-      </c>
-      <c r="B130" s="3" t="s">
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>1</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G130" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="I130" s="5"/>
+      <c r="J130" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
         <v>0</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -6233,38 +6367,40 @@
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
-    </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
-        <v>1</v>
-      </c>
-      <c r="B132" s="3" t="s">
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>1</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G132" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="J132" s="3" t="s">
+      <c r="I132" s="5"/>
+      <c r="J132" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
         <v>0</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -6285,37 +6421,39 @@
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
-    </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
-        <v>1</v>
-      </c>
-      <c r="B134" s="3" t="s">
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>1</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="F134" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G134" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H134" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="I134" s="5"/>
+      <c r="J134" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>1</v>
       </c>
@@ -6334,7 +6472,7 @@
       <c r="F135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G135" s="5"/>
+      <c r="G135" s="9"/>
       <c r="H135" s="6" t="s">
         <v>647</v>
       </c>
@@ -6345,92 +6483,95 @@
         <v>681</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
-        <v>1</v>
-      </c>
-      <c r="B136" s="3" t="s">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>1</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G136" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="I136" s="5"/>
+      <c r="J136" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
-        <v>1</v>
-      </c>
-      <c r="B137" s="3" t="s">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>1</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F137" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3" t="s">
+      <c r="G137" s="4"/>
+      <c r="H137" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="I137" s="3" t="s">
+      <c r="I137" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
-        <v>1</v>
-      </c>
-      <c r="B138" s="3" t="s">
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>1</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="F138" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="G138" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H138" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="J138" s="3" t="s">
+      <c r="I138" s="5"/>
+      <c r="J138" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>1</v>
       </c>
@@ -6449,7 +6590,7 @@
       <c r="F139" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G139" s="5"/>
+      <c r="G139" s="9"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6" t="s">
         <v>695</v>
@@ -6458,37 +6599,38 @@
         <v>597</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
-        <v>1</v>
-      </c>
-      <c r="B140" s="3" t="s">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>1</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F140" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="G140" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="H140" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="J140" s="3" t="s">
+      <c r="I140" s="5"/>
+      <c r="J140" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
         <v>0</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -6509,272 +6651,278 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
-    </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
-        <v>1</v>
-      </c>
-      <c r="B142" s="3" t="s">
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>1</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="F142" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G142" s="3" t="s">
+      <c r="G142" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="H142" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="J142" s="3" t="s">
+      <c r="I142" s="5"/>
+      <c r="J142" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
-        <v>1</v>
-      </c>
-      <c r="B143" s="3" t="s">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>1</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="G143" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="H143" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="I143" s="5"/>
+      <c r="J143" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
-        <v>1</v>
-      </c>
-      <c r="B144" s="3" t="s">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>1</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F144" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="G144" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="H144" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="J144" s="3" t="s">
+      <c r="I144" s="5"/>
+      <c r="J144" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
-        <v>1</v>
-      </c>
-      <c r="B145" s="3" t="s">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>1</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F145" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3" t="s">
+      <c r="G145" s="4"/>
+      <c r="H145" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="I145" s="4" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
-        <v>1</v>
-      </c>
-      <c r="B146" s="3" t="s">
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>1</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G146" s="3" t="s">
+      <c r="G146" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="H146" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3" t="s">
+      <c r="I146" s="4"/>
+      <c r="J146" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
-        <v>1</v>
-      </c>
-      <c r="B147" s="3" t="s">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>1</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="F147" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="G147" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H147" s="3" t="s">
+      <c r="H147" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3" t="s">
+      <c r="I147" s="4"/>
+      <c r="J147" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
-        <v>1</v>
-      </c>
-      <c r="B148" s="3" t="s">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>1</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F148" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="G148" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="H148" s="3" t="s">
+      <c r="H148" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="J148" s="3" t="s">
+      <c r="I148" s="5"/>
+      <c r="J148" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
-        <v>1</v>
-      </c>
-      <c r="B149" s="3" t="s">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>1</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="F149" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="G149" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H149" s="3" t="s">
+      <c r="H149" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3" t="s">
+      <c r="I149" s="4"/>
+      <c r="J149" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
-        <v>1</v>
-      </c>
-      <c r="B150" s="3" t="s">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>1</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="F150" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G150" s="3" t="s">
+      <c r="G150" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H150" s="3" t="s">
+      <c r="H150" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3" t="s">
+      <c r="I150" s="4"/>
+      <c r="J150" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
         <v>0</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -6795,63 +6943,65 @@
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
-    </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
-        <v>1</v>
-      </c>
-      <c r="B152" s="3" t="s">
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>1</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="F152" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="G152" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="H152" s="3" t="s">
+      <c r="H152" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="J152" s="3" t="s">
+      <c r="I152" s="5"/>
+      <c r="J152" s="4" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="3">
-        <v>1</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="A153" s="4">
+        <v>1</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="F153" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G153" s="3" t="s">
+      <c r="G153" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H153" s="3" t="s">
+      <c r="H153" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3" t="s">
+      <c r="I153" s="4"/>
+      <c r="J153" s="4" t="s">
         <v>599</v>
       </c>
     </row>
@@ -6887,95 +7037,98 @@
         <v>606</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
-        <v>1</v>
-      </c>
-      <c r="B155" s="3" t="s">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>1</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F155" s="3" t="s">
+      <c r="F155" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="3" t="s">
+      <c r="G155" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="H155" s="3" t="s">
+      <c r="H155" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="J155" s="3" t="s">
+      <c r="I155" s="5"/>
+      <c r="J155" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
-        <v>1</v>
-      </c>
-      <c r="B156" s="3" t="s">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>1</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F156" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G156" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="H156" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="I156" s="5"/>
+      <c r="J156" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
-        <v>1</v>
-      </c>
-      <c r="B157" s="3" t="s">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>1</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="F157" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G157" s="3" t="s">
+      <c r="G157" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="H157" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="J157" s="3" t="s">
+      <c r="I157" s="5"/>
+      <c r="J157" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
         <v>0</v>
       </c>
       <c r="B158" s="4" t="s">
@@ -6995,37 +7148,39 @@
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="3" t="s">
+      <c r="I158" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="3">
-        <v>1</v>
-      </c>
-      <c r="B159" s="3" t="s">
+      <c r="J158" s="5"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>1</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F159" s="3" t="s">
+      <c r="F159" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3" t="s">
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="3">
+      <c r="J159" s="5"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
         <v>0</v>
       </c>
       <c r="B160" s="4" t="s">
@@ -7046,9 +7201,10 @@
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
-    </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
+      <c r="J160" s="5"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
         <v>0</v>
       </c>
       <c r="B161" s="4" t="s">
@@ -7069,96 +7225,100 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
-    </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3">
-        <v>1</v>
-      </c>
-      <c r="B162" s="3" t="s">
+      <c r="J161" s="5"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>1</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F162" s="3" t="s">
+      <c r="F162" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="3" t="s">
+      <c r="G162" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="H162" s="3" t="s">
+      <c r="H162" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="J162" s="3" t="s">
+      <c r="I162" s="5"/>
+      <c r="J162" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3">
-        <v>1</v>
-      </c>
-      <c r="B163" s="3" t="s">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>1</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="F163" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="G163" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="H163" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="J163" s="3" t="s">
+      <c r="I163" s="5"/>
+      <c r="J163" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="3">
-        <v>1</v>
-      </c>
-      <c r="B164" s="3" t="s">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>1</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F164" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G164" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H164" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="J164" s="3" t="s">
+      <c r="I164" s="5"/>
+      <c r="J164" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
         <v>0</v>
       </c>
       <c r="B165" s="4" t="s">
@@ -7179,198 +7339,218 @@
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="3">
-        <v>1</v>
-      </c>
-      <c r="B166" s="3" t="s">
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>1</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F166" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3" t="s">
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="3">
-        <v>1</v>
-      </c>
-      <c r="B167" s="3" t="s">
+      <c r="J166" s="5"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>1</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3" t="s">
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="3">
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
         <v>0</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="5" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="3">
-        <v>1</v>
-      </c>
-      <c r="B169" t="s">
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>1</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="5" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="3">
-        <v>1</v>
-      </c>
-      <c r="B170" s="3" t="s">
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>1</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="F170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G170" s="3" t="s">
+      <c r="G170" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H170" s="3" t="s">
+      <c r="H170" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="J170" s="3" t="s">
+      <c r="I170" s="5"/>
+      <c r="J170" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="3">
-        <v>1</v>
-      </c>
-      <c r="B171" s="3" t="s">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>1</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="F171" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G171" s="3" t="s">
+      <c r="G171" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="H171" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="J171" s="3" t="s">
+      <c r="I171" s="5"/>
+      <c r="J171" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="3">
-        <v>1</v>
-      </c>
-      <c r="B172" s="3" t="s">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>1</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F172" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="3" t="s">
+      <c r="G172" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H172" s="3" t="s">
+      <c r="H172" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="J172" s="3" t="s">
+      <c r="I172" s="5"/>
+      <c r="J172" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="3">
-        <v>1</v>
-      </c>
-      <c r="B173" s="3" t="s">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>1</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="F173" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3" t="s">
+      <c r="G173" s="4"/>
+      <c r="H173" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="I173" s="3" t="s">
+      <c r="I173" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="J173" s="3" t="s">
+      <c r="J173" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
         <v>0</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -7389,108 +7569,102 @@
         <v>34</v>
       </c>
       <c r="G174" s="4"/>
-      <c r="H174" s="3"/>
+      <c r="H174" s="4"/>
       <c r="I174" s="4"/>
-    </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="3">
-        <v>1</v>
-      </c>
-      <c r="B175" t="s">
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>1</v>
+      </c>
+      <c r="B175" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="H175" s="3"/>
-      <c r="I175" t="s">
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="5" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="3">
-        <v>1</v>
-      </c>
-      <c r="B176" t="s">
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>1</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" t="s">
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="5" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="3">
-        <v>1</v>
-      </c>
-      <c r="B177" t="s">
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>1</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" t="s">
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="5" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="3">
-        <v>1</v>
-      </c>
-      <c r="B178" t="s">
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>1</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" t="s">
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="5" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="3">
-        <v>1</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>1</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" t="s">
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="5" t="s">
         <v>594</v>
       </c>
+      <c r="J179" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I179" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="gOTU56"/>
-        <filter val="gOTU66"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I177">
-      <sortCondition ref="C2:C177"/>
-      <sortCondition ref="D2:D177"/>
-      <sortCondition ref="E2:E177"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J179" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J179">
     <sortCondition ref="C2:C179"/>
     <sortCondition ref="D2:D179"/>
@@ -7503,12 +7677,179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF6C12D-127E-CF49-B93D-640AE7CF845F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="81.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Raw_data/LFDP-SPcodes.xlsx
+++ b/Raw_data/LFDP-SPcodes.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au529793/Projects/GIT/legenDNAry/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7248047-9A55-904E-B252-D3C384BE63AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BF3878-DF4E-F343-B164-B593B3D1EAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="500" windowWidth="27440" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27440" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="730">
   <si>
     <t>SPECIES CODE</t>
   </si>
@@ -2212,13 +2212,46 @@
   </si>
   <si>
     <t>Comments specific to comparing reference library sequences with GeneBank based on BLAST</t>
+  </si>
+  <si>
+    <t>gOTU_2</t>
+  </si>
+  <si>
+    <t>Final OTU classification based on merging species but excludes species without sequence data</t>
+  </si>
+  <si>
+    <t>AURANTIUM</t>
+  </si>
+  <si>
+    <t>NEOLAMARCKIA</t>
+  </si>
+  <si>
+    <t>CADAMBA</t>
+  </si>
+  <si>
+    <t>APOCYNACEAE</t>
+  </si>
+  <si>
+    <t>RAUVOLFIA</t>
+  </si>
+  <si>
+    <t>VOMITORIA</t>
+  </si>
+  <si>
+    <t>POTU69</t>
+  </si>
+  <si>
+    <t>gOTU69</t>
+  </si>
+  <si>
+    <t>Was missing for some reason from initial runs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2234,8 +2267,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2257,6 +2295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2284,22 +2328,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2619,9 +2663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2632,12 +2678,12 @@
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="71.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>589</v>
       </c>
@@ -2662,5010 +2708,5276 @@
       <c r="H1" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>0</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4" t="s">
+      <c r="I16" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4" t="s">
+      <c r="I19" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="4" t="s">
+      <c r="I21" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="4" t="s">
+      <c r="I22" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="4" t="s">
+      <c r="I24" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="4" t="s">
+      <c r="I25" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="4" t="s">
+      <c r="I26" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>0</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>1</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="4" t="s">
+      <c r="I30" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>0</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>1</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>0</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="4" t="s">
+      <c r="I34" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>1</v>
-      </c>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="K35" s="4" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="4" t="s">
+      <c r="I36" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
-        <v>1</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="K37" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="4" t="s">
+      <c r="I38" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>0</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4" t="s">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="4" t="s">
+      <c r="I40" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>1</v>
-      </c>
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="4" t="s">
+      <c r="I41" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
-        <v>1</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="6" t="s">
+      <c r="I42" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="4" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>1</v>
-      </c>
-      <c r="B43" s="4" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="4" t="s">
+      <c r="I43" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>0</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>1</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="4" t="s">
+      <c r="I45" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
-        <v>1</v>
-      </c>
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>1</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="K46" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>1</v>
-      </c>
-      <c r="B47" s="4" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="4" t="s">
+      <c r="I47" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>1</v>
-      </c>
-      <c r="B48" s="4" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>1</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="4" t="s">
+      <c r="I49" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>1</v>
-      </c>
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="4" t="s">
+      <c r="I50" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>0</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4" t="s">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
-        <v>1</v>
-      </c>
-      <c r="B52" s="6" t="s">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6" t="s">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
-        <v>1</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="K53" s="4" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
-        <v>1</v>
-      </c>
-      <c r="B54" s="6" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="s">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>0</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="K55" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
-        <v>1</v>
-      </c>
-      <c r="B56" s="7" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>1</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6" t="s">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="4"/>
+      <c r="J56" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="J56" s="6"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>0</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>1</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="4" t="s">
+      <c r="I58" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>1</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>1</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="I59" s="5"/>
-      <c r="J59" s="4" t="s">
+      <c r="I59" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>1</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>1</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="I60" s="5"/>
-      <c r="J60" s="4" t="s">
+      <c r="I60" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>1</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="I61" s="5"/>
-      <c r="J61" s="4" t="s">
+      <c r="I61" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>0</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>0</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>0</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>1</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="I65" s="5"/>
-      <c r="J65" s="4" t="s">
+      <c r="I65" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="K65" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>1</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="4" t="s">
+      <c r="I66" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>1</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4" t="s">
+      <c r="G67" s="3"/>
+      <c r="H67" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="3"/>
+      <c r="J67" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>1</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="I68" s="5"/>
-      <c r="J68" s="4" t="s">
+      <c r="I68" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K68" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>1</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4" t="s">
+      <c r="I69" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>1</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="I70" s="5"/>
-      <c r="J70" s="4" t="s">
+      <c r="I70" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>0</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>1</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="I72" s="5"/>
-      <c r="J72" s="4" t="s">
+      <c r="I72" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>1</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>1</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="I73" s="5"/>
-      <c r="J73" s="4" t="s">
+      <c r="I73" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="K73" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>1</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>1</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4" t="s">
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>1</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>1</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="4" t="s">
+      <c r="I75" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="K75" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>1</v>
-      </c>
-      <c r="B76" s="4" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>1</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="4" t="s">
+      <c r="I76" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="K76" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>1</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>1</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="4" t="s">
+      <c r="I77" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>1</v>
-      </c>
-      <c r="B78" s="5" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
         <v>586</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4" t="s">
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>1</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>1</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="I79" s="5"/>
-      <c r="J79" s="4" t="s">
+      <c r="I79" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="K79" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>0</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="I80" s="5"/>
-      <c r="J80" s="4" t="s">
+      <c r="I80" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="K80" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>1</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>1</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="I81" s="5"/>
-      <c r="J81" s="4" t="s">
+      <c r="I81" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="K81" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>1</v>
-      </c>
-      <c r="B82" s="4" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>1</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="I82" s="5"/>
-      <c r="J82" s="4" t="s">
+      <c r="I82" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>1</v>
-      </c>
-      <c r="B83" s="4" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>1</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="I83" s="5"/>
-      <c r="J83" s="4" t="s">
+      <c r="I83" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>1</v>
-      </c>
-      <c r="B84" s="4" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>1</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="I84" s="5"/>
-      <c r="J84" s="4" t="s">
+      <c r="I84" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>1</v>
-      </c>
-      <c r="B85" s="4" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>1</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="I85" s="5"/>
-      <c r="J85" s="4" t="s">
+      <c r="I85" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>1</v>
-      </c>
-      <c r="B86" s="4" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>1</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I86" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="K86" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>1</v>
-      </c>
-      <c r="B87" s="4" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>1</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I87" s="3"/>
+      <c r="J87" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>1</v>
-      </c>
-      <c r="B88" s="4" t="s">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>1</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4" t="s">
+      <c r="G88" s="3"/>
+      <c r="H88" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="3"/>
+      <c r="J88" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>1</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
         <v>582</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" t="s">
         <v>223</v>
       </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4" t="s">
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I89" s="3"/>
+      <c r="J89" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <v>1</v>
-      </c>
-      <c r="B90" s="5" t="s">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
         <v>700</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" t="s">
         <v>39</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" t="s">
         <v>223</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="4" t="s">
+      <c r="F90" s="3"/>
+      <c r="H90" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I90" s="3"/>
+      <c r="J90" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <v>1</v>
-      </c>
-      <c r="B91" s="5" t="s">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
         <v>583</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" t="s">
         <v>39</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" t="s">
         <v>223</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="4" t="s">
+      <c r="F91" s="3"/>
+      <c r="H91" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I91" s="3"/>
+      <c r="J91" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <v>1</v>
-      </c>
-      <c r="B92" s="4" t="s">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>1</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="I92" s="5"/>
-      <c r="J92" s="4" t="s">
+      <c r="I92" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
-        <v>1</v>
-      </c>
-      <c r="B93" s="6" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>1</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="H93" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="J93" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="J93" s="6" t="s">
+      <c r="K93" s="4" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <v>1</v>
-      </c>
-      <c r="B94" s="4" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>1</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="G94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H94" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I94" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="K94" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
         <v>0</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="5"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
         <v>0</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="5"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
         <v>0</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="5"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
-        <v>1</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>1</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="I98" s="5"/>
-      <c r="J98" s="4" t="s">
+      <c r="I98" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="K98" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>0</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4" t="s">
+      <c r="G99" s="3"/>
+      <c r="H99" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="I99" s="3"/>
+      <c r="J99" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <v>1</v>
-      </c>
-      <c r="B100" s="4" t="s">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>1</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H100" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="I100" s="5"/>
-      <c r="J100" s="4" t="s">
+      <c r="I100" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <v>1</v>
-      </c>
-      <c r="B101" s="4" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>1</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="G101" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H101" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="I101" s="5"/>
-      <c r="J101" s="4" t="s">
+      <c r="I101" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <v>1</v>
-      </c>
-      <c r="B102" s="4" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>1</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4" t="s">
+      <c r="G102" s="3"/>
+      <c r="H102" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I102" s="3"/>
+      <c r="J102" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="J102" s="4"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
-        <v>1</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>1</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4" t="s">
+      <c r="G103" s="3"/>
+      <c r="H103" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="I103" s="3"/>
+      <c r="J103" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="J103" s="4"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
-        <v>1</v>
-      </c>
-      <c r="B104" s="4" t="s">
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>1</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="G104" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H104" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="I104" s="5"/>
-      <c r="J104" s="4" t="s">
+      <c r="I104" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="K104" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
-        <v>1</v>
-      </c>
-      <c r="B105" s="4" t="s">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>1</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="G105" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="H105" s="4" t="s">
+      <c r="H105" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="I105" s="5"/>
-      <c r="J105" s="4" t="s">
+      <c r="I105" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="K105" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
-        <v>1</v>
-      </c>
-      <c r="B106" s="4" t="s">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>1</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G106" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="H106" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="I106" s="5"/>
-      <c r="J106" s="4" t="s">
+      <c r="I106" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="K106" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
         <v>0</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="5"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
-        <v>1</v>
-      </c>
-      <c r="B108" s="4" t="s">
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>1</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="I108" s="5"/>
-      <c r="J108" s="4" t="s">
+      <c r="I108" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="K108" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
         <v>0</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="5"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
-        <v>1</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>1</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4" t="s">
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J110" s="5"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
-        <v>1</v>
-      </c>
-      <c r="B111" s="4" t="s">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>1</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4" t="s">
+      <c r="G111" s="3"/>
+      <c r="H111" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="I111" s="4" t="s">
+      <c r="I111" s="3"/>
+      <c r="J111" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="J111" s="5"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
         <v>0</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="5"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
-        <v>1</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>1</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G113" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="H113" s="4" t="s">
+      <c r="H113" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4" t="s">
+      <c r="I113" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
-        <v>1</v>
-      </c>
-      <c r="B114" s="4" t="s">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>1</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G114" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="H114" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="I114" s="5"/>
-      <c r="J114" s="4" t="s">
+      <c r="I114" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
-        <v>1</v>
-      </c>
-      <c r="B115" s="4" t="s">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>1</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4" t="s">
+      <c r="G115" s="3"/>
+      <c r="H115" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="I115" s="3"/>
+      <c r="J115" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="J115" s="5"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>0</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="5"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
-        <v>1</v>
-      </c>
-      <c r="B117" s="4" t="s">
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>1</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4" t="s">
+      <c r="G117" s="3"/>
+      <c r="H117" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="I117" s="4" t="s">
+      <c r="I117" s="3"/>
+      <c r="J117" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="J117" s="5"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
-        <v>1</v>
-      </c>
-      <c r="B118" s="4" t="s">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>1</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4" t="s">
+      <c r="G118" s="3"/>
+      <c r="H118" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="I118" s="4" t="s">
+      <c r="I118" s="3"/>
+      <c r="J118" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="J118" s="5"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
         <v>0</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="5"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
-        <v>1</v>
-      </c>
-      <c r="B120" s="4" t="s">
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>1</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="G120" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="H120" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="I120" s="5"/>
-      <c r="J120" s="4" t="s">
+      <c r="I120" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="K120" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
-        <v>1</v>
-      </c>
-      <c r="B121" s="4" t="s">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>1</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="G121" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H121" s="4" t="s">
+      <c r="H121" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="I121" s="5"/>
-      <c r="J121" s="4" t="s">
+      <c r="I121" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="K121" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
         <v>0</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="4" t="s">
+      <c r="G122" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H122" s="4" t="s">
+      <c r="H122" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
-        <v>1</v>
-      </c>
-      <c r="B123" s="5" t="s">
+      <c r="I122" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
         <v>585</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4" t="s">
+      <c r="G123" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>1</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>1</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>1</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>1</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>1</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>1</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>0</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>1</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>0</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>1</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>1</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="7"/>
+      <c r="H135" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>1</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>1</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>1</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>1</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>1</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>0</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>1</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>1</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>1</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>1</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>1</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>1</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>1</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>1</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>1</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>0</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>1</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>1</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>1</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>1</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>1</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>1</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>0</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J123" s="5"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
-        <v>1</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F124" s="4" t="s">
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>1</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F159" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="I124" s="5"/>
-      <c r="J124" s="4" t="s">
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>0</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>0</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>1</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>1</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>1</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>0</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>1</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>1</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>703</v>
+      </c>
+      <c r="C168" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>705</v>
+      </c>
+      <c r="C169" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>1</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="K170" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
-        <v>1</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C125" s="4" t="s">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>1</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>1</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>1</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>0</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>579</v>
+      </c>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>581</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>584</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
+        <v>587</v>
+      </c>
+      <c r="C178" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="I125" s="5"/>
-      <c r="J125" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
-        <v>1</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="J126" s="5"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
-        <v>1</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="I127" s="5"/>
-      <c r="J127" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
-        <v>1</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="I128" s="5"/>
-      <c r="J128" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
-        <v>1</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="J129" s="5"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
-        <v>1</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="I130" s="5"/>
-      <c r="J130" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
-        <v>0</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="5"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <v>1</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="I132" s="5"/>
-      <c r="J132" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
-        <v>0</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="5"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
-        <v>1</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="I134" s="5"/>
-      <c r="J134" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="6">
-        <v>1</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="9"/>
-      <c r="H135" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
-        <v>1</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="I136" s="5"/>
-      <c r="J136" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
-        <v>1</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="J137" s="5"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
-        <v>1</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="I138" s="5"/>
-      <c r="J138" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
-        <v>1</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G139" s="9"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="J139" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
-        <v>1</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="I140" s="5"/>
-      <c r="J140" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
-        <v>0</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="5"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
-        <v>1</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="I142" s="5"/>
-      <c r="J142" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
-        <v>1</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="I143" s="5"/>
-      <c r="J143" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
-        <v>1</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="I144" s="5"/>
-      <c r="J144" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
-        <v>1</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="J145" s="5"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
-        <v>1</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
-        <v>1</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
-        <v>1</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="I148" s="5"/>
-      <c r="J148" s="4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
-        <v>1</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
-        <v>1</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
-        <v>0</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="5"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
-        <v>1</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="I152" s="5"/>
-      <c r="J152" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
-        <v>1</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="6">
-        <v>1</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H154" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="J154" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
-        <v>1</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="I155" s="5"/>
-      <c r="J155" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
-        <v>1</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="I156" s="5"/>
-      <c r="J156" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
-        <v>1</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="I157" s="5"/>
-      <c r="J157" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
-        <v>0</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="J158" s="5"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
-        <v>1</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="J159" s="5"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
-        <v>0</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="5"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
-        <v>0</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="5"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
-        <v>1</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="I162" s="5"/>
-      <c r="J162" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
-        <v>1</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="I163" s="5"/>
-      <c r="J163" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
-        <v>1</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="I164" s="5"/>
-      <c r="J164" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
-        <v>0</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="5"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
-        <v>1</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="J166" s="5"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
-        <v>1</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="J167" s="5"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
-        <v>0</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
-        <v>1</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
-        <v>1</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H170" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="I170" s="5"/>
-      <c r="J170" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
-        <v>1</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="I171" s="5"/>
-      <c r="J171" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
-        <v>1</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="I172" s="5"/>
-      <c r="J172" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
-        <v>1</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="I173" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
-        <v>0</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="5"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
-        <v>1</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="5" t="s">
+      <c r="D178" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" t="s">
         <v>594</v>
       </c>
-      <c r="J175" s="5"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
-        <v>1</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="5" t="s">
+    </row>
+    <row r="179" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>1</v>
+      </c>
+      <c r="B179" t="s">
+        <v>588</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" t="s">
         <v>594</v>
       </c>
-      <c r="J176" s="5"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
-        <v>1</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="J177" s="5"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
-        <v>1</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="J178" s="5"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
-        <v>1</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="J179" s="5"/>
+    </row>
+    <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+    </row>
+    <row r="189" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+    </row>
+    <row r="190" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+    </row>
+    <row r="191" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J179" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J179">
+  <autoFilter ref="A1:K179" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K179">
     <sortCondition ref="C2:C179"/>
     <sortCondition ref="D2:D179"/>
     <sortCondition ref="E2:E179"/>
@@ -7677,10 +7989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF6C12D-127E-CF49-B93D-640AE7CF845F}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7706,10 +8018,10 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>709</v>
       </c>
       <c r="C2" s="2"/>
@@ -7722,10 +8034,10 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>710</v>
       </c>
       <c r="C3" s="2"/>
@@ -7738,10 +8050,10 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>711</v>
       </c>
       <c r="C4" s="2"/>
@@ -7754,10 +8066,10 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>712</v>
       </c>
       <c r="C5" s="2"/>
@@ -7770,10 +8082,10 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>713</v>
       </c>
       <c r="C6" s="2"/>
@@ -7786,10 +8098,10 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>714</v>
       </c>
       <c r="C7" s="2"/>
@@ -7802,18 +8114,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>716</v>
       </c>
       <c r="C9" s="1"/>
@@ -7826,11 +8138,11 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>717</v>
+      <c r="A10" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>720</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7842,10 +8154,26 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>718</v>
       </c>
     </row>

--- a/Raw_data/LFDP-SPcodes.xlsx
+++ b/Raw_data/LFDP-SPcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au529793/Projects/GIT/legenDNAry/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BF3878-DF4E-F343-B164-B593B3D1EAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47DA918-9520-E447-9017-AE87A2694717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27440" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="732">
   <si>
     <t>SPECIES CODE</t>
   </si>
@@ -1773,9 +1773,6 @@
     <t>Needs a family level collapsed POTU</t>
   </si>
   <si>
-    <t>listed as FICCRA in Cescs table</t>
-  </si>
-  <si>
     <t>POTU13</t>
   </si>
   <si>
@@ -2245,13 +2242,22 @@
   </si>
   <si>
     <t>Was missing for some reason from initial runs</t>
+  </si>
+  <si>
+    <t>ALBIZIA</t>
+  </si>
+  <si>
+    <t>HEPAPLEURON</t>
+  </si>
+  <si>
+    <t>ACTINOPHYLLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2271,6 +2277,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2317,7 +2329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2345,6 +2357,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2665,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2685,7 +2698,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2706,16 +2719,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>568</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2741,14 +2754,14 @@
         <v>157</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J2"/>
       <c r="K2" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2774,13 +2787,13 @@
         <v>321</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2806,13 +2819,13 @@
         <v>251</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2838,13 +2851,13 @@
         <v>405</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2852,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>280</v>
@@ -2861,7 +2874,7 @@
         <v>281</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>34</v>
@@ -2870,7 +2883,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K6" s="3"/>
     </row>
@@ -2897,7 +2910,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2923,13 +2936,13 @@
         <v>198</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2955,13 +2968,13 @@
         <v>198</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2987,13 +3000,13 @@
         <v>455</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3019,13 +3032,13 @@
         <v>455</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3051,7 +3064,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3101,13 +3114,13 @@
         <v>512</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3133,13 +3146,13 @@
         <v>528</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3165,13 +3178,13 @@
         <v>97</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3195,11 +3208,11 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -3226,16 +3239,16 @@
         <v>477</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3261,13 +3274,13 @@
         <v>162</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3293,13 +3306,13 @@
         <v>162</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3325,13 +3338,13 @@
         <v>189</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3357,13 +3370,13 @@
         <v>536</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3389,7 +3402,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3415,13 +3428,13 @@
         <v>333</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3447,13 +3460,13 @@
         <v>274</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3479,13 +3492,13 @@
         <v>69</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3535,16 +3548,16 @@
         <v>140</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>677</v>
-      </c>
       <c r="K28" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3568,11 +3581,11 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -3599,13 +3612,13 @@
         <v>56</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3655,16 +3668,16 @@
         <v>569</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>570</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -3714,13 +3727,13 @@
         <v>184</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -3746,16 +3759,16 @@
         <v>317</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3781,13 +3794,13 @@
         <v>20</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3813,16 +3826,16 @@
         <v>16</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -3848,13 +3861,13 @@
         <v>168</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3906,13 +3919,13 @@
         <v>208</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3938,13 +3951,13 @@
         <v>205</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3970,14 +3983,14 @@
         <v>325</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -4003,13 +4016,13 @@
         <v>491</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -4059,13 +4072,13 @@
         <v>24</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -4091,16 +4104,16 @@
         <v>286</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -4126,13 +4139,13 @@
         <v>289</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -4158,7 +4171,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -4184,13 +4197,13 @@
         <v>401</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4216,13 +4229,13 @@
         <v>473</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4248,7 +4261,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -4270,15 +4283,17 @@
       <c r="F52" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>574</v>
+      </c>
       <c r="H52" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K52" s="5"/>
     </row>
@@ -4305,16 +4320,16 @@
         <v>47</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -4338,11 +4353,11 @@
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K54" s="4"/>
     </row>
@@ -4369,16 +4384,16 @@
         <v>16</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -4386,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>44</v>
@@ -4395,16 +4410,16 @@
         <v>121</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K56" s="4"/>
     </row>
@@ -4455,13 +4470,13 @@
         <v>385</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -4487,13 +4502,13 @@
         <v>385</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -4519,13 +4534,13 @@
         <v>385</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -4551,13 +4566,13 @@
         <v>385</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -4655,13 +4670,13 @@
         <v>61</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -4687,13 +4702,13 @@
         <v>64</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -4717,11 +4732,11 @@
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -4747,13 +4762,13 @@
         <v>269</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -4779,14 +4794,14 @@
         <v>261</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -4812,13 +4827,13 @@
         <v>74</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -4868,13 +4883,13 @@
         <v>261</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -4900,13 +4915,13 @@
         <v>261</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -4932,7 +4947,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -4958,13 +4973,13 @@
         <v>261</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -4990,13 +5005,13 @@
         <v>261</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -5022,13 +5037,13 @@
         <v>261</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -5036,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>71</v>
@@ -5045,12 +5060,12 @@
         <v>340</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I78" s="3"/>
     </row>
@@ -5077,13 +5092,13 @@
         <v>354</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -5109,13 +5124,13 @@
         <v>354</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -5141,13 +5156,13 @@
         <v>235</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -5173,13 +5188,13 @@
         <v>238</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -5205,13 +5220,13 @@
         <v>238</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -5237,13 +5252,13 @@
         <v>238</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -5269,13 +5284,13 @@
         <v>42</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -5292,25 +5307,23 @@
         <v>223</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>572</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="J86" s="3"/>
       <c r="K86" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -5318,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>39</v>
@@ -5333,11 +5346,11 @@
         <v>15</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -5361,11 +5374,11 @@
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K88" s="3"/>
     </row>
@@ -5374,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C89" t="s">
         <v>39</v>
@@ -5386,11 +5399,11 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -5398,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C90" t="s">
         <v>39</v>
@@ -5408,11 +5421,11 @@
       </c>
       <c r="F90" s="3"/>
       <c r="H90" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -5420,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C91" t="s">
         <v>39</v>
@@ -5429,13 +5442,16 @@
         <v>223</v>
       </c>
       <c r="F91" s="3"/>
+      <c r="G91" s="3" t="s">
+        <v>572</v>
+      </c>
       <c r="H91" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3" t="s">
-        <v>574</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
@@ -5460,13 +5476,13 @@
         <v>459</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -5488,20 +5504,18 @@
       <c r="F93" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>575</v>
-      </c>
+      <c r="G93" s="4"/>
       <c r="H93" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -5527,16 +5541,16 @@
         <v>35</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -5634,13 +5648,13 @@
         <v>212</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -5664,11 +5678,11 @@
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -5694,13 +5708,13 @@
         <v>217</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -5726,13 +5740,13 @@
         <v>372</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -5756,11 +5770,11 @@
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K102" s="3"/>
     </row>
@@ -5783,13 +5797,15 @@
       <c r="F103" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G103" s="3"/>
+      <c r="G103" s="3" t="s">
+        <v>524</v>
+      </c>
       <c r="H103" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K103" s="3"/>
     </row>
@@ -5816,13 +5832,13 @@
         <v>372</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -5848,13 +5864,13 @@
         <v>524</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -5880,13 +5896,13 @@
         <v>436</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -5936,13 +5952,13 @@
         <v>105</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -5992,7 +6008,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -6016,11 +6032,11 @@
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -6070,14 +6086,14 @@
         <v>424</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -6103,13 +6119,13 @@
         <v>427</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -6133,11 +6149,11 @@
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -6185,11 +6201,11 @@
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -6213,11 +6229,11 @@
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -6267,13 +6283,13 @@
         <v>147</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -6299,13 +6315,13 @@
         <v>147</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -6313,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>142</v>
@@ -6325,10 +6341,10 @@
         <v>147</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -6336,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>304</v>
@@ -6351,14 +6367,14 @@
         <v>15</v>
       </c>
       <c r="G123" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="H123" s="10" t="s">
         <v>727</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>728</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -6384,13 +6400,13 @@
         <v>171</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -6416,13 +6432,13 @@
         <v>109</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -6448,7 +6464,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -6474,13 +6490,13 @@
         <v>221</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -6506,13 +6522,13 @@
         <v>229</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -6536,7 +6552,7 @@
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="6" t="s">
@@ -6566,13 +6582,13 @@
         <v>29</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -6622,13 +6638,13 @@
         <v>293</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -6678,13 +6694,13 @@
         <v>411</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -6708,14 +6724,14 @@
       </c>
       <c r="G135" s="7"/>
       <c r="H135" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I135" s="4"/>
       <c r="J135" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -6741,13 +6757,13 @@
         <v>465</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -6771,11 +6787,11 @@
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -6801,13 +6817,13 @@
         <v>469</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -6833,10 +6849,10 @@
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -6862,13 +6878,13 @@
         <v>29</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -6918,13 +6934,13 @@
         <v>567</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -6950,13 +6966,13 @@
         <v>338</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -6982,13 +6998,13 @@
         <v>79</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -7012,11 +7028,11 @@
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -7042,14 +7058,14 @@
         <v>84</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -7075,14 +7091,14 @@
         <v>84</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -7108,13 +7124,13 @@
         <v>278</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -7140,14 +7156,14 @@
         <v>84</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -7173,14 +7189,14 @@
         <v>84</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -7230,13 +7246,13 @@
         <v>328</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -7262,14 +7278,14 @@
         <v>114</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -7295,16 +7311,16 @@
         <v>114</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -7330,13 +7346,13 @@
         <v>361</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
@@ -7362,13 +7378,13 @@
         <v>358</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -7394,13 +7410,13 @@
         <v>499</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -7426,7 +7442,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -7452,7 +7468,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
@@ -7526,13 +7542,13 @@
         <v>549</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -7558,13 +7574,13 @@
         <v>243</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
@@ -7590,13 +7606,13 @@
         <v>520</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
@@ -7646,7 +7662,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
@@ -7672,7 +7688,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -7680,10 +7696,10 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
+        <v>702</v>
+      </c>
+      <c r="C168" t="s">
         <v>703</v>
-      </c>
-      <c r="C168" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
@@ -7691,10 +7707,10 @@
         <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C169" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
@@ -7720,13 +7736,13 @@
         <v>92</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -7752,13 +7768,13 @@
         <v>553</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
@@ -7784,13 +7800,13 @@
         <v>119</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
@@ -7814,14 +7830,14 @@
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
@@ -7853,12 +7869,21 @@
         <v>1</v>
       </c>
       <c r="B175" t="s">
-        <v>579</v>
+        <v>578</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7866,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="B176" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>128</v>
@@ -7875,14 +7900,14 @@
         <v>129</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -7890,17 +7915,23 @@
         <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>584</v>
-      </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
+        <v>583</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>731</v>
+      </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -7908,23 +7939,23 @@
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D178" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="E178" s="9" t="s">
         <v>722</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>723</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -7932,42 +7963,60 @@
         <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C179" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="D179" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="E179" s="9" t="s">
         <v>725</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>726</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
-      <c r="F188" s="9"/>
-    </row>
-    <row r="189" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="9"/>
-      <c r="F189" s="9"/>
-    </row>
-    <row r="190" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="9"/>
-      <c r="F190" s="9"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C191" s="9"/>
@@ -8003,10 +8052,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -8019,10 +8068,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -8038,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8054,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -8070,7 +8119,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -8086,7 +8135,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -8102,7 +8151,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -8118,15 +8167,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -8139,10 +8188,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>720</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8158,7 +8207,7 @@
         <v>568</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -8171,10 +8220,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
